--- a/users.xlsx
+++ b/users.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gestion_parc_informatique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gestion-parc-informatique\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3817B4-CCF7-410F-8981-4473B66BA4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,7 +110,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -387,14 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
@@ -485,12 +486,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="C2:C6" r:id="rId2" display="youssef@gmail.com"/>
-    <hyperlink ref="C2" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5"/>
-    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2:C6" r:id="rId2" display="youssef@gmail.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
